--- a/src/main/resources/human-resources-data.xlsx
+++ b/src/main/resources/human-resources-data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga31\Desktop\수업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5025D9AD-E5C2-4A7C-A5D8-E2905EBE1CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D67AF4E8-0024-4F87-9D0A-25B7397C0752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A754DB6-FF10-4809-A0D2-9C6CDB9AA5B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="TaxInvoice" sheetId="4" r:id="rId1"/>
+    <sheet name="User" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,116 +36,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>issueStatus</t>
-  </si>
-  <si>
-    <t>ntsTransmissionStatus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>bigdecimal</t>
-  </si>
-  <si>
-    <t>VC001</t>
-  </si>
-  <si>
-    <t>제품 설명</t>
-  </si>
-  <si>
-    <t>VC002</t>
-  </si>
-  <si>
-    <t>서비스 설명</t>
-  </si>
-  <si>
-    <t>receiptType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaxType.TAXABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaxType.EXEMPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReceiptType.RECEIPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReceiptType.INVOICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IssueStatus.THIRD_PARTY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IssueStatus.SELF_ISSUED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTSStatus.TRANSMITTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTSStatus.PENDING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>issueDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachmentIncluded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taxAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>approvalNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vendorId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departmentId</t>
+  </si>
+  <si>
+    <t>companyId</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>rlaalstjd123</t>
+  </si>
+  <si>
+    <t>Role.HR_MANAGER</t>
+  </si>
+  <si>
+    <t>asdsa@ldsaolasd</t>
+  </si>
+  <si>
+    <t>최지혁</t>
+  </si>
+  <si>
+    <t>chlwlgur123</t>
+  </si>
+  <si>
+    <t>Role.SYSTEM_ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>sadad@sadda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,165 +497,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB35329-EBCD-46FF-8FF6-8B0ADEB759EB}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.45"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45445</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>100000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45446</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1">
-        <v>500000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>987654321</v>
       </c>
     </row>
   </sheetData>
